--- a/data/trans_orig/P1408-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88C01E01-EE5E-48FC-B2F6-89C37FDAF78A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E52CFAD0-584A-43F7-9978-163FB9460078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C5ABB775-0604-48AB-8ECB-33672A6D977F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1B23902-4898-4074-9902-EFCBB17CF4F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="438">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1273 +95,1264 @@
     <t>1,3%</t>
   </si>
   <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
   </si>
   <si>
     <t>99,43%</t>
   </si>
   <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
   </si>
   <si>
     <t>0,46%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
   </si>
   <si>
     <t>99,54%</t>
   </si>
   <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>98,25%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
     <t>98,39%</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>99,04%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
+    <t>4,26%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
+    <t>95,2%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>9,11%</t>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
   <si>
     <t>4,76%</t>
   </si>
   <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>90,89%</t>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
   </si>
   <si>
     <t>95,24%</t>
   </si>
   <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
+    <t>94,05%</t>
   </si>
   <si>
     <t>94,16%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>0,04%</t>
   </si>
   <si>
-    <t>2,07%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>96,63%</t>
   </si>
   <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
     <t>97,49%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6735A7-6A96-48B5-8254-5BB8C40BF19B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30863557-8275-4FE6-9E8D-B83D643457DF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2378,10 +2369,10 @@
         <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -2390,13 +2381,13 @@
         <v>17518</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2402,13 @@
         <v>631667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>648</v>
@@ -2426,13 +2417,13 @@
         <v>679227</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>1254</v>
@@ -2441,13 +2432,13 @@
         <v>1310894</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2503,7 +2494,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2521,7 +2512,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2566,13 +2557,13 @@
         <v>14365</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -2581,13 +2572,13 @@
         <v>15127</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>28</v>
@@ -2596,13 +2587,13 @@
         <v>29492</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2608,13 @@
         <v>504782</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>487</v>
@@ -2632,13 +2623,13 @@
         <v>500515</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
         <v>958</v>
@@ -2647,13 +2638,13 @@
         <v>1005297</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,7 +2700,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2727,7 +2718,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2742,7 +2733,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2757,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2763,13 @@
         <v>24679</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -2787,13 +2778,13 @@
         <v>9316</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -2802,13 +2793,13 @@
         <v>33995</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2823,13 +2814,13 @@
         <v>362031</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>387</v>
@@ -2838,13 +2829,13 @@
         <v>394670</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>753</v>
@@ -2853,13 +2844,13 @@
         <v>756701</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,7 +2906,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2933,7 +2924,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2963,7 +2954,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,13 +2969,13 @@
         <v>75615</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -2993,13 +2984,13 @@
         <v>44050</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -3008,13 +2999,13 @@
         <v>119665</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3029,13 +3020,13 @@
         <v>426851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>619</v>
@@ -3044,13 +3035,13 @@
         <v>632792</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="M26" s="7">
         <v>1065</v>
@@ -3059,13 +3050,13 @@
         <v>1059643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,7 +3130,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3154,7 +3145,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3169,7 +3160,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3184,13 +3175,13 @@
         <v>136019</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -3199,13 +3190,13 @@
         <v>91534</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="M29" s="7">
         <v>226</v>
@@ -3214,13 +3205,13 @@
         <v>227554</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3235,13 +3226,13 @@
         <v>3140525</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H30" s="7">
         <v>3209</v>
@@ -3250,28 +3241,28 @@
         <v>3287664</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M30" s="7">
         <v>6285</v>
       </c>
       <c r="N30" s="7">
-        <v>6428186</v>
+        <v>6428187</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3313,7 +3304,7 @@
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>35</v>
@@ -3327,7 +3318,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3340,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E440D1-9CB6-4406-B18F-BF2B7FA18D69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9243EAF2-3C88-4A8E-913F-2F74F187CBA0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3366,7 +3357,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3479,7 +3470,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3494,7 +3485,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3509,7 +3500,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3530,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3545,7 +3536,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3560,7 +3551,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,7 +3569,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>35</v>
@@ -3593,7 +3584,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>35</v>
@@ -3608,7 +3599,7 @@
         <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -3700,7 +3691,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3736,7 +3727,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3745,13 +3736,13 @@
         <v>1064</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3760,13 +3751,13 @@
         <v>2068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,10 +3772,10 @@
         <v>686084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
@@ -3796,10 +3787,10 @@
         <v>609191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
@@ -3811,10 +3802,10 @@
         <v>1295274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -3936,13 +3927,13 @@
         <v>4877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3951,13 +3942,13 @@
         <v>4749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3966,13 +3957,13 @@
         <v>9627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,13 +3978,13 @@
         <v>676986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -4002,13 +3993,13 @@
         <v>704825</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>1307</v>
@@ -4017,13 +4008,13 @@
         <v>1381810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,7 +4070,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4097,7 +4088,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4112,7 +4103,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4127,7 +4118,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4133,13 @@
         <v>7376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4157,13 +4148,13 @@
         <v>4939</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>169</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4172,13 +4163,13 @@
         <v>12315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>103</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4184,13 @@
         <v>607241</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="H18" s="7">
         <v>534</v>
@@ -4208,13 +4199,13 @@
         <v>609325</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>154</v>
+        <v>211</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="M18" s="7">
         <v>1077</v>
@@ -4223,13 +4214,13 @@
         <v>1216565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>212</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4285,7 +4276,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4303,7 +4294,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4318,7 +4309,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4333,7 +4324,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4339,13 @@
         <v>15226</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -4363,13 +4354,13 @@
         <v>9194</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -4378,13 +4369,13 @@
         <v>24420</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4390,13 @@
         <v>414203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="H22" s="7">
         <v>397</v>
@@ -4414,13 +4405,13 @@
         <v>438606</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M22" s="7">
         <v>777</v>
@@ -4429,13 +4420,13 @@
         <v>852809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,7 +4482,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4524,7 +4515,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4539,7 +4530,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4545,13 @@
         <v>45171</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -4569,13 +4560,13 @@
         <v>22521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>84</v>
+        <v>237</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -4584,13 +4575,13 @@
         <v>67692</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4596,13 @@
         <v>514466</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="H26" s="7">
         <v>672</v>
@@ -4620,13 +4611,13 @@
         <v>719271</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>94</v>
+        <v>247</v>
       </c>
       <c r="M26" s="7">
         <v>1134</v>
@@ -4635,13 +4626,13 @@
         <v>1233737</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,7 +4706,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4730,7 +4721,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4745,7 +4736,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4760,13 +4751,13 @@
         <v>73653</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -4775,13 +4766,13 @@
         <v>42468</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -4790,13 +4781,13 @@
         <v>116121</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4802,13 @@
         <v>3353126</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="H30" s="7">
         <v>3255</v>
@@ -4826,13 +4817,13 @@
         <v>3511448</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="M30" s="7">
         <v>6398</v>
@@ -4841,13 +4832,13 @@
         <v>6864573</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>253</v>
+        <v>227</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,7 +4894,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +4916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF952C14-43F3-42E3-97BF-E9E3C3A684CB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BBEAEF-773C-416B-8D7B-04C1AC138856}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4942,7 +4933,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5055,7 +5046,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5070,7 +5061,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5085,7 +5076,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5100,13 +5091,13 @@
         <v>1954</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5121,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5130,13 +5121,13 @@
         <v>1954</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,10 +5142,10 @@
         <v>417509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -5169,7 +5160,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>35</v>
@@ -5181,10 +5172,10 @@
         <v>813264</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>261</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -5261,7 +5252,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5276,7 +5267,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5291,7 +5282,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5297,13 @@
         <v>1991</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>241</v>
+        <v>107</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5321,13 +5312,13 @@
         <v>2895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5336,13 +5327,13 @@
         <v>4886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,10 +5348,10 @@
         <v>588505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>249</v>
+        <v>117</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
@@ -5372,13 +5363,13 @@
         <v>560649</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M10" s="7">
         <v>1141</v>
@@ -5387,13 +5378,13 @@
         <v>1149154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,7 +5458,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5512,13 +5503,13 @@
         <v>3203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5527,13 +5518,13 @@
         <v>3799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>18</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>39</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>46</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5542,13 +5533,13 @@
         <v>7002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5554,13 @@
         <v>665894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -5578,13 +5569,13 @@
         <v>657587</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>28</v>
+        <v>290</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>278</v>
+        <v>55</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
         <v>1296</v>
@@ -5593,13 +5584,13 @@
         <v>1323481</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,7 +5646,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5673,7 +5664,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5703,7 +5694,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5709,13 @@
         <v>7344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>239</v>
+        <v>295</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5733,13 +5724,13 @@
         <v>4025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>284</v>
+        <v>24</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -5751,10 +5742,10 @@
         <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,13 +5760,13 @@
         <v>638704</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>203</v>
+        <v>72</v>
       </c>
       <c r="H18" s="7">
         <v>598</v>
@@ -5784,28 +5775,28 @@
         <v>645052</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>288</v>
+        <v>33</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M18" s="7">
         <v>1173</v>
       </c>
       <c r="N18" s="7">
-        <v>1283756</v>
+        <v>1283757</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>57</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>258</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5847,7 +5838,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>35</v>
@@ -5861,7 +5852,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5879,7 +5870,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5894,7 +5885,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5909,7 +5900,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5915,13 @@
         <v>19993</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -5939,13 +5930,13 @@
         <v>6691</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>263</v>
+        <v>282</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>204</v>
+        <v>62</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -5954,13 +5945,13 @@
         <v>26685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5966,13 @@
         <v>457925</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>298</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="H22" s="7">
         <v>427</v>
@@ -5990,13 +5981,13 @@
         <v>490158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>258</v>
+        <v>72</v>
       </c>
       <c r="M22" s="7">
         <v>834</v>
@@ -6005,13 +5996,13 @@
         <v>948082</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,7 +6058,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6130,13 +6121,13 @@
         <v>31994</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -6145,13 +6136,13 @@
         <v>28109</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>309</v>
+        <v>48</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -6160,13 +6151,13 @@
         <v>60104</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6172,13 @@
         <v>559334</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="H26" s="7">
         <v>631</v>
@@ -6196,13 +6187,13 @@
         <v>749822</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>319</v>
+        <v>56</v>
       </c>
       <c r="M26" s="7">
         <v>1223</v>
@@ -6211,13 +6202,13 @@
         <v>1309155</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,7 +6282,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6306,7 +6297,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6321,7 +6312,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6336,13 +6327,13 @@
         <v>66480</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>323</v>
+        <v>88</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -6351,13 +6342,13 @@
         <v>45519</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>47</v>
+        <v>275</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="M29" s="7">
         <v>107</v>
@@ -6366,13 +6357,13 @@
         <v>111999</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>336</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>84</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6378,13 @@
         <v>3327870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>328</v>
+        <v>98</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="H30" s="7">
         <v>3297</v>
@@ -6402,13 +6393,13 @@
         <v>3499023</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>57</v>
+        <v>279</v>
       </c>
       <c r="M30" s="7">
         <v>6462</v>
@@ -6417,13 +6408,13 @@
         <v>6826893</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>187</v>
+        <v>342</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>94</v>
+        <v>343</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,7 +6470,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6501,7 +6492,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C2A4F3-71BD-4884-895E-822342D3DE6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13661287-3196-4A37-B95F-F92FD0166C47}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6518,7 +6509,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6631,7 +6622,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6646,7 +6637,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6661,7 +6652,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>41</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6682,7 +6673,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6691,13 +6682,13 @@
         <v>9101</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6706,13 +6697,13 @@
         <v>9101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6730,7 +6721,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>35</v>
@@ -6742,13 +6733,13 @@
         <v>345856</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>342</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>376</v>
@@ -6757,10 +6748,10 @@
         <v>723535</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>34</v>
@@ -6837,7 +6828,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6846,13 +6837,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>347</v>
+        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6861,13 +6852,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>23</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6882,13 +6873,13 @@
         <v>2484</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H9" s="7">
         <v>5</v>
@@ -6897,13 +6888,13 @@
         <v>6052</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>351</v>
+        <v>253</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -6912,13 +6903,13 @@
         <v>8536</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>335</v>
+        <v>219</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6933,10 +6924,10 @@
         <v>425912</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
@@ -6948,13 +6939,13 @@
         <v>492526</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>755</v>
@@ -6963,13 +6954,13 @@
         <v>918437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>213</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,7 +7034,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7052,13 +7043,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7067,13 +7058,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7088,13 +7079,13 @@
         <v>2543</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7103,13 +7094,13 @@
         <v>3546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>363</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>364</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7118,13 +7109,13 @@
         <v>6089</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>162</v>
+        <v>285</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>366</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7139,10 +7130,10 @@
         <v>554709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>303</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
@@ -7154,13 +7145,13 @@
         <v>579212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>1384</v>
@@ -7169,13 +7160,13 @@
         <v>1133920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,7 +7222,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7258,7 +7249,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7273,13 +7264,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>39</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7294,13 +7285,13 @@
         <v>13333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>45</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -7309,13 +7300,13 @@
         <v>12698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -7324,13 +7315,13 @@
         <v>26032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7345,13 +7336,13 @@
         <v>709535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>53</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="H18" s="7">
         <v>1120</v>
@@ -7360,28 +7351,28 @@
         <v>733996</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>341</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="M18" s="7">
         <v>1772</v>
       </c>
       <c r="N18" s="7">
-        <v>1443532</v>
+        <v>1443531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>385</v>
+        <v>232</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>27</v>
+        <v>387</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7423,7 +7414,7 @@
         <v>1804</v>
       </c>
       <c r="N19" s="7">
-        <v>1469971</v>
+        <v>1469970</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>35</v>
@@ -7437,7 +7428,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7464,13 +7455,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>62</v>
+        <v>297</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7479,13 +7470,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>390</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>21</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7500,13 +7491,13 @@
         <v>18818</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>389</v>
+        <v>218</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -7515,13 +7506,13 @@
         <v>17482</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>208</v>
+        <v>395</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -7530,13 +7521,13 @@
         <v>36300</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>393</v>
+        <v>147</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7551,13 +7542,13 @@
         <v>580268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>396</v>
+        <v>227</v>
       </c>
       <c r="H22" s="7">
         <v>969</v>
@@ -7566,13 +7557,13 @@
         <v>574532</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>1608</v>
@@ -7581,13 +7572,13 @@
         <v>1154800</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,7 +7634,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7676,7 +7667,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7691,7 +7682,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7706,13 +7697,13 @@
         <v>51704</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>224</v>
+        <v>406</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -7721,13 +7712,13 @@
         <v>48796</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -7736,13 +7727,13 @@
         <v>100500</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7757,13 +7748,13 @@
         <v>645273</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>233</v>
+        <v>416</v>
       </c>
       <c r="H26" s="7">
         <v>1610</v>
@@ -7772,13 +7763,13 @@
         <v>975613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="M26" s="7">
         <v>2559</v>
@@ -7787,13 +7778,13 @@
         <v>1620886</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7867,7 +7858,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -7876,13 +7867,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>420</v>
+        <v>68</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7891,13 +7882,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,10 +7906,10 @@
         <v>19</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="H29" s="7">
         <v>154</v>
@@ -7927,13 +7918,13 @@
         <v>97675</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M29" s="7">
         <v>271</v>
@@ -7942,13 +7933,13 @@
         <v>186558</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>430</v>
+        <v>381</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7966,10 +7957,10 @@
         <v>27</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>434</v>
       </c>
       <c r="H30" s="7">
         <v>5198</v>
@@ -7978,13 +7969,13 @@
         <v>3701734</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="M30" s="7">
         <v>8454</v>
@@ -7993,13 +7984,13 @@
         <v>6995110</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>438</v>
+        <v>160</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,7 +8046,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1408-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E52CFAD0-584A-43F7-9978-163FB9460078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAB9E164-B2BA-4DDA-AB96-3717FB156D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B1B23902-4898-4074-9902-EFCBB17CF4F0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C129137-76FF-458C-8FD0-B7D1325E6130}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="439">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -95,1258 +95,1261 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,55%</t>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>99,79%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,7%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>88,08%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>96,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2023 (Tasa respuesta: 99,86%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
   </si>
   <si>
     <t>95,57%</t>
@@ -1764,7 +1767,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30863557-8275-4FE6-9E8D-B83D643457DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8110694E-9C52-4EB6-9A3F-E3733A160195}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2781,10 +2784,10 @@
         <v>106</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>35</v>
@@ -2793,13 +2796,13 @@
         <v>33995</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,13 +2817,13 @@
         <v>362031</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>387</v>
@@ -2829,13 +2832,13 @@
         <v>394670</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="M22" s="7">
         <v>753</v>
@@ -2844,13 +2847,13 @@
         <v>756701</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,7 +2909,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2954,7 +2957,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2972,13 @@
         <v>75615</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H25" s="7">
         <v>42</v>
@@ -2984,13 +2987,13 @@
         <v>44050</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -2999,13 +3002,13 @@
         <v>119665</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3020,13 +3023,13 @@
         <v>426851</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H26" s="7">
         <v>619</v>
@@ -3035,13 +3038,13 @@
         <v>632792</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="M26" s="7">
         <v>1065</v>
@@ -3050,13 +3053,13 @@
         <v>1059643</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,7 +3133,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3145,7 +3148,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3160,7 +3163,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,13 +3178,13 @@
         <v>136019</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>88</v>
@@ -3190,13 +3193,13 @@
         <v>91534</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>226</v>
@@ -3205,13 +3208,13 @@
         <v>227554</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,16 +3226,16 @@
         <v>3076</v>
       </c>
       <c r="D30" s="7">
-        <v>3140525</v>
+        <v>3140524</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>3209</v>
@@ -3241,13 +3244,13 @@
         <v>3287664</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>6285</v>
@@ -3256,13 +3259,13 @@
         <v>6428187</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3274,7 +3277,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>35</v>
@@ -3318,7 +3321,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3340,7 +3343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9243EAF2-3C88-4A8E-913F-2F74F187CBA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B108BFCB-DEAA-4C06-8525-C0A31392CD00}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3357,7 +3360,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3470,7 +3473,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3485,7 +3488,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3500,7 +3503,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,7 +3524,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3536,7 +3539,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3551,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3569,7 +3572,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>35</v>
@@ -3584,7 +3587,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>35</v>
@@ -3599,7 +3602,7 @@
         <v>31</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>35</v>
@@ -3691,7 +3694,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3727,7 +3730,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>170</v>
+        <v>68</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -3736,13 +3739,13 @@
         <v>1064</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M9" s="7">
         <v>2</v>
@@ -3751,13 +3754,13 @@
         <v>2068</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,10 +3775,10 @@
         <v>686084</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
@@ -3787,10 +3790,10 @@
         <v>609191</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>31</v>
@@ -3802,10 +3805,10 @@
         <v>1295274</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>31</v>
@@ -3927,13 +3930,13 @@
         <v>4877</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -3942,13 +3945,13 @@
         <v>4749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>10</v>
@@ -3957,13 +3960,13 @@
         <v>9627</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3981,13 @@
         <v>676986</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>92</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -3993,13 +3996,13 @@
         <v>704825</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>1307</v>
@@ -4008,13 +4011,13 @@
         <v>1381810</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,7 +4091,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4103,7 +4106,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4118,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4136,13 @@
         <v>7376</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4148,13 +4151,13 @@
         <v>4939</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -4163,13 +4166,13 @@
         <v>12315</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4187,13 @@
         <v>607241</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H18" s="7">
         <v>534</v>
@@ -4199,13 +4202,13 @@
         <v>609325</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="M18" s="7">
         <v>1077</v>
@@ -4214,13 +4217,13 @@
         <v>1216565</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4309,7 +4312,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4339,13 +4342,13 @@
         <v>15226</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H21" s="7">
         <v>9</v>
@@ -4354,13 +4357,13 @@
         <v>9194</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="M21" s="7">
         <v>22</v>
@@ -4369,13 +4372,13 @@
         <v>24420</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4393,13 @@
         <v>414203</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="H22" s="7">
         <v>397</v>
@@ -4405,13 +4408,13 @@
         <v>438606</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>777</v>
@@ -4420,13 +4423,13 @@
         <v>852809</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,7 +4485,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4515,7 +4518,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4530,7 +4533,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4548,13 @@
         <v>45171</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H25" s="7">
         <v>21</v>
@@ -4560,13 +4563,13 @@
         <v>22521</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M25" s="7">
         <v>63</v>
@@ -4575,13 +4578,13 @@
         <v>67692</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>240</v>
+        <v>147</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,13 +4599,13 @@
         <v>514466</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="H26" s="7">
         <v>672</v>
@@ -4611,13 +4614,13 @@
         <v>719271</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>245</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="M26" s="7">
         <v>1134</v>
@@ -4626,13 +4629,13 @@
         <v>1233737</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>250</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,7 +4709,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4721,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4736,7 +4739,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4754,13 @@
         <v>73653</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -4766,13 +4769,13 @@
         <v>42468</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="M29" s="7">
         <v>106</v>
@@ -4781,13 +4784,13 @@
         <v>116121</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>257</v>
+        <v>85</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,13 +4805,13 @@
         <v>3353126</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>260</v>
+        <v>151</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H30" s="7">
         <v>3255</v>
@@ -4817,13 +4820,13 @@
         <v>3511448</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="M30" s="7">
         <v>6398</v>
@@ -4832,13 +4835,13 @@
         <v>6864573</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>265</v>
+        <v>95</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,7 +4897,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4916,7 +4919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BBEAEF-773C-416B-8D7B-04C1AC138856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22723C3-DE58-4219-B021-7E1F275A12E9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4933,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5061,7 +5064,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5091,13 +5094,13 @@
         <v>1954</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5112,7 +5115,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5127,7 +5130,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,10 +5145,10 @@
         <v>417509</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>31</v>
@@ -5160,7 +5163,7 @@
         <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>35</v>
@@ -5172,10 +5175,10 @@
         <v>813264</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>57</v>
+        <v>257</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>31</v>
@@ -5252,7 +5255,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5267,7 +5270,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5282,7 +5285,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5300,13 @@
         <v>1991</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>107</v>
+        <v>259</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5312,13 +5315,13 @@
         <v>2895</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -5327,13 +5330,13 @@
         <v>4886</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,10 +5351,10 @@
         <v>588505</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>263</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
@@ -5363,13 +5366,13 @@
         <v>560649</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>277</v>
+        <v>251</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>1141</v>
@@ -5378,13 +5381,13 @@
         <v>1149154</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,7 +5461,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>280</v>
+        <v>194</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5506,10 +5509,10 @@
         <v>101</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -5518,13 +5521,13 @@
         <v>3799</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>18</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>267</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>268</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -5533,13 +5536,13 @@
         <v>7002</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5557,13 @@
         <v>665894</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="H14" s="7">
         <v>661</v>
@@ -5569,13 +5572,13 @@
         <v>657587</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>290</v>
+        <v>28</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>55</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>1296</v>
@@ -5584,13 +5587,13 @@
         <v>1323481</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5667,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5694,7 +5697,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5709,13 +5712,13 @@
         <v>7344</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5724,13 +5727,13 @@
         <v>4025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>24</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -5739,13 +5742,13 @@
         <v>11369</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5763,13 @@
         <v>638704</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>72</v>
+        <v>205</v>
       </c>
       <c r="H18" s="7">
         <v>598</v>
@@ -5775,28 +5778,28 @@
         <v>645052</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>33</v>
+        <v>286</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="M18" s="7">
         <v>1173</v>
       </c>
       <c r="N18" s="7">
-        <v>1283757</v>
+        <v>1283756</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>57</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>303</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,7 +5841,7 @@
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>35</v>
@@ -5870,7 +5873,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5885,7 +5888,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5900,7 +5903,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5918,13 @@
         <v>19993</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>289</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -5930,13 +5933,13 @@
         <v>6691</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="M21" s="7">
         <v>23</v>
@@ -5945,13 +5948,13 @@
         <v>26685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>310</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5969,13 @@
         <v>457925</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>97</v>
+        <v>296</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H22" s="7">
         <v>427</v>
@@ -5981,13 +5984,13 @@
         <v>490158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>72</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7">
         <v>834</v>
@@ -5996,13 +5999,13 @@
         <v>948082</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6058,7 +6061,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6121,13 +6124,13 @@
         <v>31994</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -6136,13 +6139,13 @@
         <v>28109</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>48</v>
+        <v>307</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -6151,13 +6154,13 @@
         <v>60104</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6175,13 @@
         <v>559334</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="H26" s="7">
         <v>631</v>
@@ -6187,13 +6190,13 @@
         <v>749822</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>56</v>
+        <v>317</v>
       </c>
       <c r="M26" s="7">
         <v>1223</v>
@@ -6202,13 +6205,13 @@
         <v>1309155</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6282,7 +6285,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6297,7 +6300,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6312,7 +6315,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6327,13 +6330,13 @@
         <v>66480</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>88</v>
+        <v>321</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>82</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="H29" s="7">
         <v>41</v>
@@ -6342,13 +6345,13 @@
         <v>45519</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
         <v>107</v>
@@ -6357,13 +6360,13 @@
         <v>111999</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6378,10 +6381,10 @@
         <v>3327870</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>98</v>
+        <v>327</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>92</v>
@@ -6393,13 +6396,13 @@
         <v>3499023</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="M30" s="7">
         <v>6462</v>
@@ -6408,13 +6411,13 @@
         <v>6826893</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>344</v>
+        <v>299</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,7 +6473,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6492,7 +6495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13661287-3196-4A37-B95F-F92FD0166C47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB37EB37-4C8D-4758-83BF-E92F9A3C01E3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6509,7 +6512,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6622,7 +6625,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6637,7 +6640,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6652,7 +6655,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,7 +6676,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6682,13 +6685,13 @@
         <v>9101</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6697,13 +6700,13 @@
         <v>9101</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6721,7 +6724,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>35</v>
@@ -6733,10 +6736,10 @@
         <v>345856</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>32</v>
@@ -6748,10 +6751,10 @@
         <v>723535</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>34</v>
@@ -6828,7 +6831,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6837,13 +6840,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>173</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6852,13 +6855,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6873,7 +6876,7 @@
         <v>2484</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
@@ -6888,13 +6891,13 @@
         <v>6052</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>253</v>
+        <v>349</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -6903,13 +6906,13 @@
         <v>8536</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>219</v>
+        <v>335</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>216</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6924,7 +6927,7 @@
         <v>425912</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>77</v>
@@ -6939,13 +6942,13 @@
         <v>492526</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>755</v>
@@ -6954,13 +6957,13 @@
         <v>918437</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7034,7 +7037,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7043,13 +7046,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7058,13 +7061,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7079,13 +7082,13 @@
         <v>2543</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>370</v>
+        <v>242</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -7094,13 +7097,13 @@
         <v>3546</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -7109,10 +7112,10 @@
         <v>6089</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>40</v>
@@ -7130,10 +7133,10 @@
         <v>554709</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>303</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>371</v>
+        <v>248</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>31</v>
@@ -7145,13 +7148,13 @@
         <v>579212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>1384</v>
@@ -7160,13 +7163,13 @@
         <v>1133920</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,7 +7252,7 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
@@ -7264,13 +7267,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7285,13 +7288,13 @@
         <v>13333</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>45</v>
+        <v>372</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -7300,13 +7303,13 @@
         <v>12698</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -7315,13 +7318,13 @@
         <v>26032</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>376</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7336,13 +7339,13 @@
         <v>709535</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>53</v>
+        <v>379</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H18" s="7">
         <v>1120</v>
@@ -7351,13 +7354,13 @@
         <v>733996</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>292</v>
+        <v>383</v>
       </c>
       <c r="M18" s="7">
         <v>1772</v>
@@ -7366,13 +7369,13 @@
         <v>1443531</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>232</v>
+        <v>384</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7455,13 +7458,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>297</v>
+        <v>62</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>389</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7470,13 +7473,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7491,13 +7494,13 @@
         <v>18818</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H21" s="7">
         <v>28</v>
@@ -7506,13 +7509,13 @@
         <v>17482</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="M21" s="7">
         <v>51</v>
@@ -7521,13 +7524,13 @@
         <v>36300</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>151</v>
+        <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7542,13 +7545,13 @@
         <v>580268</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>969</v>
@@ -7557,13 +7560,13 @@
         <v>574532</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="M22" s="7">
         <v>1608</v>
@@ -7572,13 +7575,13 @@
         <v>1154800</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7634,7 +7637,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7667,7 +7670,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7682,7 +7685,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,13 +7700,13 @@
         <v>51704</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H25" s="7">
         <v>94</v>
@@ -7712,13 +7715,13 @@
         <v>48796</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -7727,13 +7730,13 @@
         <v>100500</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,13 +7751,13 @@
         <v>645273</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H26" s="7">
         <v>1610</v>
@@ -7763,13 +7766,13 @@
         <v>975613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M26" s="7">
         <v>2559</v>
@@ -7778,13 +7781,13 @@
         <v>1620886</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7858,7 +7861,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -7867,13 +7870,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>68</v>
+        <v>420</v>
       </c>
       <c r="K28" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -7882,13 +7885,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="P28" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7903,13 +7906,13 @@
         <v>88883</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>19</v>
+        <v>425</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>426</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>427</v>
+        <v>45</v>
       </c>
       <c r="H29" s="7">
         <v>154</v>
@@ -7918,13 +7921,13 @@
         <v>97675</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M29" s="7">
         <v>271</v>
@@ -7933,13 +7936,13 @@
         <v>186558</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>48</v>
+        <v>430</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>431</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7954,13 +7957,13 @@
         <v>3293375</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>27</v>
+        <v>431</v>
       </c>
       <c r="F30" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>433</v>
       </c>
       <c r="H30" s="7">
         <v>5198</v>
@@ -7969,10 +7972,10 @@
         <v>3701734</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>435</v>
@@ -7984,13 +7987,13 @@
         <v>6995110</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>160</v>
+        <v>436</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8046,7 +8049,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1408-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1408-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0A73DB7-EB5B-4094-B2E6-7060F2E02A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89C1708B-DC66-428F-9B22-1AAC70762706}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{504F169A-4E29-4BAC-BB55-238C706E0026}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8FFD010D-02EB-4254-AD56-094B460A9B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="454">
   <si>
     <t>Población con diagnóstico de enfermedad crónica de pulmón en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -191,7 +191,7 @@
     <t>99,12%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>1,1%</t>
@@ -236,7 +236,7 @@
     <t>99,19%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>2,77%</t>
@@ -293,7 +293,7 @@
     <t>98,09%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>6,38%</t>
@@ -350,63 +350,120 @@
     <t>96,92%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>91,46%</t>
   </si>
   <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
     <t>4,15%</t>
   </si>
   <si>
@@ -662,307 +719,391 @@
     <t>98,21%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de enfermedad crónica de pulmón en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
   </si>
   <si>
     <t>1,96%</t>
@@ -1001,259 +1142,265 @@
     <t>1,11%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>98,89%</t>
   </si>
   <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
   </si>
   <si>
     <t>98,4%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
   </si>
   <si>
     <t>3,23%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>96,77%</t>
   </si>
   <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
   </si>
 </sst>
 </file>
@@ -1665,8 +1812,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA3C7185-FCFB-45A4-B1E7-EDA1D24046AC}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75E3B726-722F-4AF0-A19E-AF0E2D3FE672}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2558,10 +2705,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="D19" s="7">
-        <v>75615</v>
+        <v>30500</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>104</v>
@@ -2573,10 +2720,10 @@
         <v>106</v>
       </c>
       <c r="H19" s="7">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="I19" s="7">
-        <v>44050</v>
+        <v>19799</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>107</v>
@@ -2588,10 +2735,10 @@
         <v>109</v>
       </c>
       <c r="M19" s="7">
-        <v>119</v>
+        <v>53</v>
       </c>
       <c r="N19" s="7">
-        <v>119665</v>
+        <v>50299</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>110</v>
@@ -2609,10 +2756,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>446</v>
+        <v>271</v>
       </c>
       <c r="D20" s="7">
-        <v>426851</v>
+        <v>262083</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>113</v>
@@ -2624,10 +2771,10 @@
         <v>115</v>
       </c>
       <c r="H20" s="7">
-        <v>619</v>
+        <v>350</v>
       </c>
       <c r="I20" s="7">
-        <v>632792</v>
+        <v>323135</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>116</v>
@@ -2639,10 +2786,10 @@
         <v>118</v>
       </c>
       <c r="M20" s="7">
-        <v>1065</v>
+        <v>621</v>
       </c>
       <c r="N20" s="7">
-        <v>1059643</v>
+        <v>585218</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>119</v>
@@ -2660,10 +2807,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2675,10 +2822,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2690,10 +2837,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2707,55 +2854,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="D22" s="7">
-        <v>136019</v>
+        <v>45115</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H22" s="7">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="I22" s="7">
-        <v>91534</v>
+        <v>24252</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M22" s="7">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="N22" s="7">
-        <v>227554</v>
+        <v>69366</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,49 +2911,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3076</v>
+        <v>175</v>
       </c>
       <c r="D23" s="7">
-        <v>3140525</v>
+        <v>164768</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
-        <v>3209</v>
+        <v>269</v>
       </c>
       <c r="I23" s="7">
-        <v>3287664</v>
+        <v>309656</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
-        <v>6285</v>
+        <v>444</v>
       </c>
       <c r="N23" s="7">
-        <v>6428186</v>
+        <v>474425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,63 +2962,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>138</v>
+      </c>
+      <c r="D25" s="7">
+        <v>136019</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="7">
+        <v>88</v>
+      </c>
+      <c r="I25" s="7">
+        <v>91534</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="M25" s="7">
+        <v>226</v>
+      </c>
+      <c r="N25" s="7">
+        <v>227554</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3076</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3140524</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3209</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3287663</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6285</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6428187</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2884,8 +3187,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1164F0EE-09EC-40CA-98DC-40570B49FFA8}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277FBA99-1C03-46BB-864F-597727A6C9ED}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2901,7 +3204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3011,10 +3314,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3026,10 +3329,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3041,10 +3344,10 @@
         <v>15</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3365,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3077,7 +3380,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -3092,7 +3395,7 @@
         <v>26</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>30</v>
@@ -3163,13 +3466,13 @@
         <v>1003</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -3178,13 +3481,13 @@
         <v>1064</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3193,13 +3496,13 @@
         <v>2068</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,10 +3517,10 @@
         <v>686084</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -3229,10 +3532,10 @@
         <v>609191</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -3244,10 +3547,10 @@
         <v>1295274</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>26</v>
@@ -3318,13 +3621,13 @@
         <v>4877</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3333,13 +3636,13 @@
         <v>4749</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -3348,13 +3651,13 @@
         <v>9627</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3672,13 @@
         <v>676986</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="H11" s="7">
         <v>661</v>
@@ -3384,13 +3687,13 @@
         <v>704825</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1307</v>
@@ -3399,13 +3702,13 @@
         <v>1381810</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,13 +3776,13 @@
         <v>7376</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -3488,13 +3791,13 @@
         <v>4939</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3506,10 +3809,10 @@
         <v>89</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3524,10 +3827,10 @@
         <v>607241</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>29</v>
@@ -3539,13 +3842,13 @@
         <v>609325</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>1077</v>
@@ -3557,10 +3860,10 @@
         <v>99</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,13 +3931,13 @@
         <v>15226</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -3643,13 +3946,13 @@
         <v>9194</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M16" s="7">
         <v>22</v>
@@ -3658,13 +3961,13 @@
         <v>24420</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,13 +3982,13 @@
         <v>414203</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H17" s="7">
         <v>397</v>
@@ -3694,13 +3997,13 @@
         <v>438606</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M17" s="7">
         <v>777</v>
@@ -3709,13 +4012,13 @@
         <v>852809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3777,49 +4080,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D19" s="7">
-        <v>45171</v>
+        <v>17541</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="H19" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I19" s="7">
-        <v>22521</v>
+        <v>5983</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>230</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="M19" s="7">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="N19" s="7">
-        <v>67692</v>
+        <v>23524</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>142</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3828,49 +4131,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>462</v>
+        <v>266</v>
       </c>
       <c r="D20" s="7">
-        <v>514466</v>
+        <v>292245</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
-        <v>672</v>
+        <v>338</v>
       </c>
       <c r="I20" s="7">
-        <v>719271</v>
+        <v>348013</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>83</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
-        <v>1134</v>
+        <v>604</v>
       </c>
       <c r="N20" s="7">
-        <v>1233737</v>
+        <v>640258</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>220</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,10 +4182,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3894,10 +4197,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>693</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>741792</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3909,10 +4212,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1301429</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3926,55 +4229,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="D22" s="7">
-        <v>73653</v>
+        <v>27630</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>163</v>
+        <v>243</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="H22" s="7">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>42468</v>
+        <v>16538</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="M22" s="7">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="N22" s="7">
-        <v>116121</v>
+        <v>44168</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3983,49 +4286,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3143</v>
+        <v>196</v>
       </c>
       <c r="D23" s="7">
-        <v>3353126</v>
+        <v>222221</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="H23" s="7">
-        <v>3255</v>
+        <v>334</v>
       </c>
       <c r="I23" s="7">
-        <v>3511448</v>
+        <v>371258</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>234</v>
+        <v>255</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
       <c r="M23" s="7">
-        <v>6398</v>
+        <v>530</v>
       </c>
       <c r="N23" s="7">
-        <v>6864573</v>
+        <v>593479</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,63 +4337,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>349</v>
+      </c>
+      <c r="I24" s="7">
+        <v>387796</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>571</v>
+      </c>
+      <c r="N24" s="7">
+        <v>637647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7">
+        <v>73653</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H25" s="7">
+        <v>40</v>
+      </c>
+      <c r="I25" s="7">
+        <v>42468</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M25" s="7">
+        <v>106</v>
+      </c>
+      <c r="N25" s="7">
+        <v>116121</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3143</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3353126</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3255</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3511448</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6398</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6864573</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3295</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3553916</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6504</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6980694</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4103,8 +4562,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA654809-AC93-4CB0-B8C0-5F4F65EDE21A}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6E86CA-790C-4370-BDD8-4DE8E2CE35B7}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4120,7 +4579,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4227,13 +4686,13 @@
         <v>1954</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4245,10 +4704,10 @@
         <v>15</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4257,13 +4716,13 @@
         <v>1954</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,10 +4737,10 @@
         <v>417509</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -4296,7 +4755,7 @@
         <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>30</v>
@@ -4308,10 +4767,10 @@
         <v>813264</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -4382,13 +4841,13 @@
         <v>1991</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>225</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4400,10 +4859,10 @@
         <v>33</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -4412,13 +4871,13 @@
         <v>4886</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,10 +4892,10 @@
         <v>588505</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4451,10 +4910,10 @@
         <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1141</v>
@@ -4463,13 +4922,13 @@
         <v>1149154</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4996,13 @@
         <v>3203</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>229</v>
+        <v>266</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -4555,10 +5014,10 @@
         <v>12</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -4567,13 +5026,13 @@
         <v>7002</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +5047,13 @@
         <v>665894</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="H11" s="7">
         <v>661</v>
@@ -4606,10 +5065,10 @@
         <v>23</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1296</v>
@@ -4618,13 +5077,13 @@
         <v>1323481</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,13 +5151,13 @@
         <v>7344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>260</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -4707,13 +5166,13 @@
         <v>4025</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>11</v>
@@ -4725,10 +5184,10 @@
         <v>39</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4743,13 +5202,13 @@
         <v>638704</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>598</v>
@@ -4758,13 +5217,13 @@
         <v>645052</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="M14" s="7">
         <v>1173</v>
@@ -4776,10 +5235,10 @@
         <v>49</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4847,13 +5306,13 @@
         <v>19993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4862,13 +5321,13 @@
         <v>6691</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="M16" s="7">
         <v>23</v>
@@ -4877,13 +5336,13 @@
         <v>26685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4898,13 +5357,13 @@
         <v>457925</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="H17" s="7">
         <v>427</v>
@@ -4913,13 +5372,13 @@
         <v>490158</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>834</v>
@@ -4928,13 +5387,13 @@
         <v>948082</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4996,49 +5455,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D19" s="7">
-        <v>31994</v>
+        <v>13658</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>291</v>
+        <v>88</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>292</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>28109</v>
+        <v>12935</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>293</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="M19" s="7">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="N19" s="7">
-        <v>60104</v>
+        <v>26593</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,49 +5506,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>592</v>
+        <v>311</v>
       </c>
       <c r="D20" s="7">
-        <v>559334</v>
+        <v>320672</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>301</v>
+        <v>97</v>
       </c>
       <c r="H20" s="7">
-        <v>631</v>
+        <v>342</v>
       </c>
       <c r="I20" s="7">
-        <v>749822</v>
+        <v>364827</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>302</v>
+        <v>156</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>303</v>
+        <v>334</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="M20" s="7">
-        <v>1223</v>
+        <v>653</v>
       </c>
       <c r="N20" s="7">
-        <v>1309155</v>
+        <v>685499</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>305</v>
+        <v>336</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>306</v>
+        <v>337</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,10 +5557,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5113,10 +5572,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5128,10 +5587,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5145,55 +5604,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="D22" s="7">
-        <v>66480</v>
+        <v>18337</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>308</v>
+        <v>339</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>270</v>
+        <v>340</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="H22" s="7">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>45519</v>
+        <v>15174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>39</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="M22" s="7">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="N22" s="7">
-        <v>111999</v>
+        <v>33510</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>163</v>
+        <v>344</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>73</v>
+        <v>346</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,49 +5661,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3165</v>
+        <v>281</v>
       </c>
       <c r="D23" s="7">
-        <v>3327870</v>
+        <v>238661</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>274</v>
+        <v>349</v>
       </c>
       <c r="H23" s="7">
-        <v>3297</v>
+        <v>289</v>
       </c>
       <c r="I23" s="7">
-        <v>3499023</v>
+        <v>384995</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="M23" s="7">
-        <v>6462</v>
+        <v>570</v>
       </c>
       <c r="N23" s="7">
-        <v>6826893</v>
+        <v>623657</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>171</v>
+        <v>352</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,63 +5712,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>66</v>
+      </c>
+      <c r="D25" s="7">
+        <v>66480</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H25" s="7">
+        <v>41</v>
+      </c>
+      <c r="I25" s="7">
+        <v>45519</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="M25" s="7">
+        <v>107</v>
+      </c>
+      <c r="N25" s="7">
+        <v>111999</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3165</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3327870</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3297</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3499023</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6462</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6826893</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5322,8 +5937,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A989EC01-AC0F-4684-80F9-706C0322C5E0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6B646CE-C0BE-4259-AE3B-6221F16370C8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5339,7 +5954,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5449,40 +6064,40 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>9101</v>
+        <v>7969</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>321</v>
+        <v>369</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>9101</v>
+        <v>7969</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>371</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>323</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +6109,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5509,31 +6124,31 @@
         <v>204</v>
       </c>
       <c r="I5" s="7">
-        <v>345856</v>
+        <v>305231</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
       </c>
       <c r="N5" s="7">
-        <v>723535</v>
+        <v>705218</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>328</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,7 +6160,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5560,7 +6175,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5575,7 +6190,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5598,46 +6213,46 @@
         <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>2484</v>
+        <v>2336</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>53</v>
+        <v>379</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>6052</v>
+        <v>5476</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>330</v>
+        <v>380</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>52</v>
+        <v>381</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>331</v>
+        <v>382</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>8536</v>
+        <v>7812</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>332</v>
+        <v>383</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>333</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5649,13 +6264,13 @@
         <v>300</v>
       </c>
       <c r="D8" s="7">
-        <v>425912</v>
+        <v>421211</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>386</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -5664,31 +6279,31 @@
         <v>455</v>
       </c>
       <c r="I8" s="7">
-        <v>492525</v>
+        <v>506028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>60</v>
+        <v>389</v>
       </c>
       <c r="M8" s="7">
         <v>755</v>
       </c>
       <c r="N8" s="7">
-        <v>918437</v>
+        <v>927239</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>390</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>339</v>
+        <v>391</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>340</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5700,7 +6315,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5715,7 +6330,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5730,7 +6345,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5753,43 +6368,43 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>2543</v>
+        <v>2367</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>392</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>341</v>
+        <v>67</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3546</v>
+        <v>3332</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>168</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
       </c>
       <c r="N10" s="7">
-        <v>6089</v>
+        <v>5699</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>344</v>
+        <v>164</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>32</v>
@@ -5804,13 +6419,13 @@
         <v>544</v>
       </c>
       <c r="D11" s="7">
-        <v>554709</v>
+        <v>533971</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>60</v>
+        <v>393</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>77</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>26</v>
@@ -5819,31 +6434,31 @@
         <v>840</v>
       </c>
       <c r="I11" s="7">
-        <v>579212</v>
+        <v>538467</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>310</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>290</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
         <v>1384</v>
       </c>
       <c r="N11" s="7">
-        <v>1133921</v>
+        <v>1072438</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>348</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5855,7 +6470,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5870,7 +6485,7 @@
         <v>845</v>
       </c>
       <c r="I12" s="7">
-        <v>582758</v>
+        <v>541799</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5885,7 +6500,7 @@
         <v>1391</v>
       </c>
       <c r="N12" s="7">
-        <v>1140010</v>
+        <v>1078137</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5908,46 +6523,46 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>13333</v>
+        <v>12550</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>12698</v>
+        <v>11749</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>298</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
       </c>
       <c r="N13" s="7">
-        <v>26032</v>
+        <v>24300</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>334</v>
+        <v>54</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>397</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5959,46 +6574,46 @@
         <v>652</v>
       </c>
       <c r="D14" s="7">
-        <v>709535</v>
+        <v>874161</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>354</v>
+        <v>399</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>356</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>1120</v>
       </c>
       <c r="I14" s="7">
-        <v>733997</v>
+        <v>700589</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>303</v>
       </c>
       <c r="M14" s="7">
         <v>1772</v>
       </c>
       <c r="N14" s="7">
-        <v>1443531</v>
+        <v>1574749</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>402</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>184</v>
+        <v>403</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6010,7 +6625,7 @@
         <v>664</v>
       </c>
       <c r="D15" s="7">
-        <v>722868</v>
+        <v>886711</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6025,7 +6640,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746695</v>
+        <v>712338</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6040,7 +6655,7 @@
         <v>1803</v>
       </c>
       <c r="N15" s="7">
-        <v>1469563</v>
+        <v>1599049</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6063,46 +6678,46 @@
         <v>23</v>
       </c>
       <c r="D16" s="7">
-        <v>18818</v>
+        <v>18095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>405</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>406</v>
       </c>
       <c r="H16" s="7">
         <v>28</v>
       </c>
       <c r="I16" s="7">
-        <v>17482</v>
+        <v>15896</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="M16" s="7">
         <v>51</v>
       </c>
       <c r="N16" s="7">
-        <v>36300</v>
+        <v>33991</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6114,46 +6729,46 @@
         <v>639</v>
       </c>
       <c r="D17" s="7">
-        <v>580268</v>
+        <v>542142</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="H17" s="7">
         <v>969</v>
       </c>
       <c r="I17" s="7">
-        <v>574531</v>
+        <v>527569</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>1608</v>
       </c>
       <c r="N17" s="7">
-        <v>1154800</v>
+        <v>1069711</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>375</v>
+        <v>150</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,7 +6780,7 @@
         <v>662</v>
       </c>
       <c r="D18" s="7">
-        <v>599086</v>
+        <v>560237</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6180,7 +6795,7 @@
         <v>997</v>
       </c>
       <c r="I18" s="7">
-        <v>592013</v>
+        <v>543465</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6195,7 +6810,7 @@
         <v>1659</v>
       </c>
       <c r="N18" s="7">
-        <v>1191100</v>
+        <v>1103702</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6215,49 +6830,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="D19" s="7">
-        <v>51704</v>
+        <v>24043</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>417</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>378</v>
+        <v>418</v>
       </c>
       <c r="H19" s="7">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="I19" s="7">
-        <v>48796</v>
+        <v>16457</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>379</v>
+        <v>144</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>380</v>
+        <v>57</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="M19" s="7">
-        <v>172</v>
+        <v>71</v>
       </c>
       <c r="N19" s="7">
-        <v>100500</v>
+        <v>40500</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>382</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>383</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6266,49 +6881,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>949</v>
+        <v>532</v>
       </c>
       <c r="D20" s="7">
-        <v>645273</v>
+        <v>343404</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>385</v>
+        <v>421</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>386</v>
+        <v>422</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>423</v>
       </c>
       <c r="H20" s="7">
-        <v>1610</v>
+        <v>791</v>
       </c>
       <c r="I20" s="7">
-        <v>975613</v>
+        <v>590805</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>387</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>389</v>
+        <v>64</v>
       </c>
       <c r="M20" s="7">
-        <v>2559</v>
+        <v>1323</v>
       </c>
       <c r="N20" s="7">
-        <v>1620886</v>
+        <v>934209</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>392</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6317,10 +6932,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1027</v>
+        <v>569</v>
       </c>
       <c r="D21" s="7">
-        <v>696977</v>
+        <v>367447</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6332,10 +6947,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1704</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1024409</v>
+        <v>607262</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6347,10 +6962,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2731</v>
+        <v>1394</v>
       </c>
       <c r="N21" s="7">
-        <v>1721386</v>
+        <v>974709</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6364,55 +6979,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="D22" s="7">
-        <v>88883</v>
+        <v>24301</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>13</v>
+        <v>426</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="H22" s="7">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="I22" s="7">
-        <v>97675</v>
+        <v>27690</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="M22" s="7">
-        <v>271</v>
+        <v>101</v>
       </c>
       <c r="N22" s="7">
-        <v>186558</v>
+        <v>51991</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>55</v>
+        <v>432</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,49 +7036,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3256</v>
+        <v>417</v>
       </c>
       <c r="D23" s="7">
-        <v>3293375</v>
+        <v>258458</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>22</v>
+        <v>435</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>400</v>
+        <v>437</v>
       </c>
       <c r="H23" s="7">
-        <v>5198</v>
+        <v>819</v>
       </c>
       <c r="I23" s="7">
-        <v>3701734</v>
+        <v>397215</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>401</v>
+        <v>438</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>402</v>
+        <v>439</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="M23" s="7">
-        <v>8454</v>
+        <v>1236</v>
       </c>
       <c r="N23" s="7">
-        <v>6995110</v>
+        <v>655673</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>62</v>
+        <v>441</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>139</v>
+        <v>442</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>404</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6472,63 +7087,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424905</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1337</v>
+      </c>
+      <c r="N24" s="7">
+        <v>707664</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>117</v>
+      </c>
+      <c r="D25" s="7">
+        <v>83692</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H25" s="7">
+        <v>154</v>
+      </c>
+      <c r="I25" s="7">
+        <v>88570</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="M25" s="7">
+        <v>271</v>
+      </c>
+      <c r="N25" s="7">
+        <v>172262</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3256</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3373334</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H26" s="7">
+        <v>5198</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3565904</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8454</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6939237</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3373</v>
       </c>
-      <c r="D24" s="7">
-        <v>3382258</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3457026</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5352</v>
       </c>
-      <c r="I24" s="7">
-        <v>3799409</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3654474</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8725</v>
       </c>
-      <c r="N24" s="7">
-        <v>7181668</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>7111499</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
